--- a/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/UspErrorLog.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/UspErrorLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE33184-D57A-44A1-B199-B58AF84694E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAC9CF8-69C4-4C8F-A6CF-CFC4C471B19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6084" yWindow="0" windowWidth="17568" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -219,35 +219,35 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>CreateDate</t>
+  </si>
+  <si>
+    <t>建檔日期時間</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>CreateEmpNo</t>
+  </si>
+  <si>
+    <t>建檔人員</t>
+  </si>
+  <si>
+    <t>LastUpdate</t>
+  </si>
+  <si>
+    <t>最後更新日期時間</t>
+  </si>
+  <si>
+    <t>LastUpdateEmpNo</t>
+  </si>
+  <si>
+    <t>最後更新人員</t>
+  </si>
+  <si>
     <t>LogDate DESC,LogTime DESC,UspName DESC</t>
     <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>CreateDate</t>
-  </si>
-  <si>
-    <t>建檔日期時間</t>
-  </si>
-  <si>
-    <t>DATE</t>
-  </si>
-  <si>
-    <t>CreateEmpNo</t>
-  </si>
-  <si>
-    <t>建檔人員</t>
-  </si>
-  <si>
-    <t>LastUpdate</t>
-  </si>
-  <si>
-    <t>最後更新日期時間</t>
-  </si>
-  <si>
-    <t>LastUpdateEmpNo</t>
-  </si>
-  <si>
-    <t>最後更新人員</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B5" s="48"/>
       <c r="C5" s="11" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="9"/>
@@ -1312,13 +1312,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="D17" s="42" t="s">
         <v>53</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>54</v>
       </c>
       <c r="E17" s="43"/>
       <c r="F17" s="43" t="s">
@@ -1331,10 +1331,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="42" t="s">
         <v>55</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>56</v>
       </c>
       <c r="D18" s="42" t="s">
         <v>22</v>
@@ -1352,13 +1352,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="42" t="s">
-        <v>58</v>
-      </c>
       <c r="D19" s="42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" s="43"/>
       <c r="F19" s="43" t="s">
@@ -1371,10 +1371,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="42" t="s">
         <v>59</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>60</v>
       </c>
       <c r="D20" s="42" t="s">
         <v>22</v>

--- a/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/UspErrorLog.xlsx
+++ b/Program/Other/URS會議審查紀錄/DbLayouts/L9-報表作業/UspErrorLog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L9-報表作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAC9CF8-69C4-4C8F-A6CF-CFC4C471B19C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F73770-F3C0-4F35-A1AC-80AEB43F6634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="65">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="7" type="noConversion"/>
@@ -182,11 +182,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>預存程序啟動人員員編
-註:999999為系統批次</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>啟動人員員編</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -248,6 +243,27 @@
   <si>
     <t>LogDate DESC,LogTime DESC,UspName DESC</t>
     <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>預存程序啟動人員員編
+註：999999為系統批次</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>預存程序建檔日期時間
+註：999999為系統批次</t>
+  </si>
+  <si>
+    <t>預存程序建檔人員
+註：999999為系統批次</t>
+  </si>
+  <si>
+    <t>預存程序最後更新日期時間
+註：999999為系統批次</t>
+  </si>
+  <si>
+    <t>預存程序最後更新人員
+註：999999為系統批次</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1037,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1070,7 +1086,7 @@
       </c>
       <c r="B3" s="48"/>
       <c r="C3" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>13</v>
@@ -1095,7 +1111,7 @@
       </c>
       <c r="B5" s="48"/>
       <c r="C5" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="9"/>
@@ -1152,10 +1168,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>44</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>45</v>
       </c>
       <c r="D9" s="36" t="s">
         <v>12</v>
@@ -1294,7 +1310,7 @@
         <v>40</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D16" s="36" t="s">
         <v>41</v>
@@ -1304,7 +1320,7 @@
       </c>
       <c r="F16" s="35"/>
       <c r="G16" s="39" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="25" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1312,13 +1328,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="D17" s="42" t="s">
         <v>52</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>53</v>
       </c>
       <c r="E17" s="43"/>
       <c r="F17" s="43" t="s">
@@ -1331,10 +1347,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="42" t="s">
         <v>54</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>55</v>
       </c>
       <c r="D18" s="42" t="s">
         <v>22</v>
@@ -1352,13 +1368,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="42" t="s">
-        <v>57</v>
-      </c>
       <c r="D19" s="42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" s="43"/>
       <c r="F19" s="43" t="s">
@@ -1371,10 +1387,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="42" t="s">
         <v>58</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>59</v>
       </c>
       <c r="D20" s="42" t="s">
         <v>22</v>
@@ -1489,24 +1505,24 @@
     </row>
     <row r="2" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
